--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1808499.453134526</v>
+        <v>1807176.889322591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948777</v>
+        <v>5866991.033948782</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736054</v>
+        <v>1783678.472736053</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>387.8281228960627</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>201.472304927918</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>182.4852380012457</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>263.1393519262454</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>34.74711488349264</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>398.4373212703445</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0299058421965</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.76969522851622</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>388.9364112694136</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>320.5999790873868</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.82458127133006</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>47.64512042712315</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.15666072211136</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>157.5069255690377</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.63762111489908</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>137.8797272855246</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>401.5578040935733</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>43.73967016444698</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2019,10 +2019,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>121.6740993227961</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>95.543314656299</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>158.231281714787</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860865</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U25" t="n">
-        <v>29.86829023225081</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860865</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>169.9367079279113</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.134636304284104</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914972</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>122.5603156417014</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>81.88988233735115</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0629767141849</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>190.1198520010234</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914972</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860865</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>47.58534246555455</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914972</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860865</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>169.9367079279122</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>213.9385083087881</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>221.3312451093042</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3305074382568</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860865</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,7 +3669,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>32.79674911964764</v>
       </c>
       <c r="T40" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>122.6327847633634</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U41" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>112.192121816133</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.41871194302</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.4697473695408</v>
+        <v>386.6812869399531</v>
       </c>
       <c r="H44" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.234755280439</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>128.7521859281537</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9659758737533</v>
@@ -4197,10 +4197,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>118.8502774209932</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2082.073505856017</v>
+        <v>1091.415158587176</v>
       </c>
       <c r="C2" t="n">
-        <v>1690.327927173125</v>
+        <v>681.2905679004463</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
         <v>450.4933697367699</v>
@@ -4330,19 +4330,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211262</v>
       </c>
     </row>
     <row r="3">
@@ -4418,19 +4418,19 @@
         <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.7422574146847</v>
+        <v>700.5143089511126</v>
       </c>
       <c r="C4" t="n">
-        <v>322.7422574146847</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="D4" t="n">
-        <v>322.7422574146847</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E4" t="n">
-        <v>322.7422574146847</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1386.83545901687</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1386.83545901687</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>1112.949713956392</v>
       </c>
       <c r="W4" t="n">
-        <v>322.7422574146847</v>
+        <v>1112.949713956392</v>
       </c>
       <c r="X4" t="n">
-        <v>322.7422574146847</v>
+        <v>1112.949713956392</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.7422574146847</v>
+        <v>888.214015345157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.9654716736151</v>
+        <v>1280.493434973059</v>
       </c>
       <c r="C5" t="n">
-        <v>108.8408809868852</v>
+        <v>870.3688442863294</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>465.9049143793899</v>
       </c>
       <c r="E5" t="n">
         <v>63.44297370227418</v>
@@ -4570,13 +4570,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
         <v>1571.411346813777</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.123324390014</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y5" t="n">
-        <v>929.1866513381045</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.0154767040586</v>
+        <v>850.121764145656</v>
       </c>
       <c r="C7" t="n">
-        <v>209.0154767040586</v>
+        <v>679.0283917073725</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0154767040586</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>209.0154767040586</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.0154767040586</v>
+        <v>1037.8214705397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2082.073505856017</v>
+        <v>1201.869857010476</v>
       </c>
       <c r="C8" t="n">
-        <v>2075.989319209691</v>
+        <v>791.7452663237458</v>
       </c>
       <c r="D8" t="n">
-        <v>1683.124257321394</v>
+        <v>387.2813364168063</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.784041838291</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1208.050632634561</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.272337731413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>486.272337731413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>486.272337731413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -5001,13 +5001,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2668642681101</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>141.3700819604442</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.1375248150675</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C13" t="n">
-        <v>760.044152376784</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>760.044152376784</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>599.1333372451036</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>434.5022113556948</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>267.2518202812382</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>117.6443650866949</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1343.572929820347</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.572929820347</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.837231209112</v>
+        <v>428.968196018315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U14" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.8243789626575</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>279.731006524374</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>279.731006524374</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>279.731006524374</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>115.0998806349653</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>115.0998806349653</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>115.0998806349653</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5466,22 +5466,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="U16" t="n">
-        <v>913.9039397142094</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V16" t="n">
-        <v>913.9039397142094</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W16" t="n">
-        <v>913.9039397142094</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X16" t="n">
-        <v>675.5600775738928</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y16" t="n">
-        <v>450.8243789626575</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>809.7661385917668</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1032.970092797216</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C19" t="n">
-        <v>861.8767203589325</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D19" t="n">
-        <v>702.3820756818425</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>541.471260550162</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>376.8401346607533</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1499.739463682386</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1499.739463682386</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1499.739463682386</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.739463682386</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.66979919126</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X19" t="n">
-        <v>1220.66979919126</v>
+        <v>1110.412987110678</v>
       </c>
       <c r="Y19" t="n">
-        <v>1220.66979919126</v>
+        <v>1110.412987110678</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>360.8454687716326</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>189.7520963333491</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
         <v>97.41996410676371</v>
@@ -5989,10 +5989,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,7 +6001,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
         <v>3926.785084202961</v>
@@ -6016,25 +6016,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C24" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D24" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E24" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F24" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G24" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H24" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>2830.780385847137</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>2830.780385847137</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>3696.741976463448</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>4593.992910081894</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>4870.998205338185</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>4870.998205338185</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>4870.998205338185</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S24" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T24" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U24" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V24" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W24" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X24" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y24" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.6516733319595</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C25" t="n">
-        <v>535.558300893676</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D25" t="n">
-        <v>376.063656216586</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E25" t="n">
-        <v>376.063656216586</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I25" t="n">
         <v>97.41996410676371</v>
@@ -6153,19 +6153,19 @@
         <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
         <v>1702.21247802243</v>
@@ -6177,22 +6177,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.21247802243</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U25" t="n">
-        <v>1672.042487888843</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V25" t="n">
-        <v>1398.156742828365</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W25" t="n">
-        <v>1119.087078337239</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X25" t="n">
-        <v>1119.087078337239</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y25" t="n">
-        <v>894.3513797260039</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I26" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J26" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270212</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344923</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.6589969684</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210381</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168603</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505084</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640252</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J27" t="n">
-        <v>97.4199641067637</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.4199641067637</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.4199641067637</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>514.8469186904417</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1183.652854113933</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C28" t="n">
-        <v>1012.559481675649</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D28" t="n">
-        <v>853.0648369985593</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E28" t="n">
-        <v>692.1540218668788</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F28" t="n">
-        <v>527.5228959774701</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G28" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271772</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I28" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>280.2672813142629</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
         <v>1702.21247802243</v>
@@ -6411,25 +6411,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1701.066380745375</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T28" t="n">
-        <v>1701.066380745375</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.066380745375</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.066380745375</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W28" t="n">
-        <v>1421.996716254249</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.652854113933</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y28" t="n">
-        <v>1183.652854113933</v>
+        <v>97.41996410676373</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6478,10 +6478,10 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q29" t="n">
         <v>4819.791607344924</v>
@@ -6490,13 +6490,13 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
         <v>4140.315699004907</v>
@@ -6542,28 +6542,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1183.652854113933</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C31" t="n">
-        <v>1012.55948167565</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D31" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E31" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F31" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
         <v>97.41996410676371</v>
@@ -6627,46 +6627,46 @@
         <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S31" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T31" t="n">
-        <v>1702.21247802243</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.21247802243</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V31" t="n">
-        <v>1702.21247802243</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W31" t="n">
-        <v>1702.21247802243</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X31" t="n">
-        <v>1596.088259119213</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1371.352560507977</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092805</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406075</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499136</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016033</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
         <v>894.7949994695443</v>
@@ -6697,55 +6697,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L32" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M32" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270212</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344923</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.6589969684</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210381</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168603</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505084</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640252</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809205</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757295</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J33" t="n">
-        <v>97.4199641067637</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.4199641067637</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.4199641067637</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1183.652854113933</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.559481675649</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="D34" t="n">
-        <v>853.0648369985593</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="E34" t="n">
-        <v>692.1540218668788</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774701</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271772</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="I34" t="n">
-        <v>97.4199641067637</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>280.2672813142629</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
@@ -6885,25 +6885,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1654.146475531971</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1654.146475531971</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>1371.352560507977</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>1371.352560507977</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>1371.352560507977</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.352560507977</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y34" t="n">
-        <v>1371.352560507977</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732499</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6952,10 +6952,10 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q35" t="n">
         <v>4819.791607344924</v>
@@ -6970,13 +6970,13 @@
         <v>4518.209749210382</v>
       </c>
       <c r="U35" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V35" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X35" t="n">
         <v>3355.912000309029</v>
@@ -7016,28 +7016,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.5499222432264</v>
+        <v>867.56248846364</v>
       </c>
       <c r="C37" t="n">
-        <v>582.4565498049429</v>
+        <v>696.4691160253565</v>
       </c>
       <c r="D37" t="n">
-        <v>422.961905127853</v>
+        <v>536.9744713482664</v>
       </c>
       <c r="E37" t="n">
-        <v>262.0510899961724</v>
+        <v>376.063656216586</v>
       </c>
       <c r="F37" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676371</v>
@@ -7101,46 +7101,46 @@
         <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1620.428692731033</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T37" t="n">
-        <v>1620.428692731033</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U37" t="n">
-        <v>1620.428692731033</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="V37" t="n">
-        <v>1620.428692731033</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="W37" t="n">
-        <v>1404.329189388823</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="X37" t="n">
-        <v>1165.985327248506</v>
+        <v>1278.829109109507</v>
       </c>
       <c r="Y37" t="n">
-        <v>941.2496286372708</v>
+        <v>1055.262194857684</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732499</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U38" t="n">
-        <v>4490.153253668426</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V38" t="n">
-        <v>4140.315699004907</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.555398140076</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X38" t="n">
-        <v>3355.912000309029</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.975327257119</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>298.803175282419</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>374.4252593630555</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>1240.386849979366</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4238.426015209275</v>
+        <v>908.7294727618387</v>
       </c>
       <c r="C40" t="n">
-        <v>4067.332642770991</v>
+        <v>737.6361003235552</v>
       </c>
       <c r="D40" t="n">
-        <v>3907.837998093901</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="E40" t="n">
-        <v>3746.927182962221</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="F40" t="n">
-        <v>3582.296057072812</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="G40" t="n">
-        <v>3415.123260546202</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>4789.214420046788</v>
+        <v>1669.084448608645</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.997221364292</v>
+        <v>1429.867249926149</v>
       </c>
       <c r="U40" t="n">
-        <v>4426.125721603319</v>
+        <v>1147.073334902155</v>
       </c>
       <c r="V40" t="n">
-        <v>4426.125721603319</v>
+        <v>1147.073334902155</v>
       </c>
       <c r="W40" t="n">
-        <v>4426.125721603319</v>
+        <v>1147.073334902155</v>
       </c>
       <c r="X40" t="n">
-        <v>4426.125721603319</v>
+        <v>908.7294727618387</v>
       </c>
       <c r="Y40" t="n">
-        <v>4426.125721603319</v>
+        <v>908.7294727618387</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H41" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443127</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4026.896640408599</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C43" t="n">
-        <v>3855.803267970316</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D43" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E43" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F43" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766616</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642933</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4604.174913274182</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="T43" t="n">
-        <v>4364.957714591686</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U43" t="n">
-        <v>4251.632339019834</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V43" t="n">
-        <v>4251.632339019834</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W43" t="n">
-        <v>4251.632339019834</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X43" t="n">
-        <v>4251.632339019834</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y43" t="n">
-        <v>4026.896640408599</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395065</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7660,40 +7660,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505085</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640253</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809206</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757296</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M45" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3266.205691422519</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="C46" t="n">
-        <v>3266.205691422519</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="D46" t="n">
-        <v>3266.205691422519</v>
+        <v>521.2609145825413</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S46" t="n">
-        <v>4685.958698565579</v>
+        <v>1490.375979672292</v>
       </c>
       <c r="T46" t="n">
-        <v>4446.741499883083</v>
+        <v>1490.375979672292</v>
       </c>
       <c r="U46" t="n">
-        <v>4163.947584859089</v>
+        <v>1207.582064648299</v>
       </c>
       <c r="V46" t="n">
-        <v>3890.061839798611</v>
+        <v>933.696319587821</v>
       </c>
       <c r="W46" t="n">
-        <v>3610.992175307485</v>
+        <v>933.696319587821</v>
       </c>
       <c r="X46" t="n">
-        <v>3490.941390033754</v>
+        <v>933.696319587821</v>
       </c>
       <c r="Y46" t="n">
-        <v>3266.205691422519</v>
+        <v>708.9606209765857</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>333.3534809699548</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7993,7 +7993,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8066,10 +8066,10 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>266.8093398682835</v>
+        <v>68.26591628750401</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8552,10 +8552,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>389.300405673794</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O24" t="n">
-        <v>315.7539583063244</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>455.990995518149</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O30" t="n">
-        <v>315.7539583063253</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O33" t="n">
-        <v>315.7539583063253</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O36" t="n">
-        <v>315.7539583063253</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421738</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>112.6053387223397</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461631</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458883</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861594</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978725</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O42" t="n">
-        <v>534.407073842585</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.7011964521922</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>36.21939520654507</v>
       </c>
       <c r="M45" t="n">
-        <v>455.9909955181487</v>
+        <v>431.051361515377</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.84312462897442</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>91.02592471460575</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.98141605608521</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,7 +23664,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -23673,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>93.54496432181803</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>99.2735243475403</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.083197172522773</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>142.083039165657</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>62.85375111609277</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23949,13 +23949,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24144,7 +24144,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>52.5680659862989</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914972</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.5010685613433</v>
@@ -24384,7 +24384,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U25" t="n">
-        <v>250.0976856415025</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>226.7002559248257</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>182.0544754005965</v>
+        <v>117.1101460979194</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860865</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>96.67443963873755</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>198.0760935364022</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>130.8974468047285</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>226.7002559248259</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>46.79347495124821</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>135.603769239326</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.8250266956711</v>
@@ -25374,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>62.34045953742623</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.157096515818694</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>17.78846042958776</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>150.3923625852329</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.3331911103899</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U41" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>66.1078287323523</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>167.7738540576204</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248245</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>17.78846042958776</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26031,7 +26031,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.43692577672689</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>117.1101460979202</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652688.7516746195</v>
+        <v>652688.7516746194</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652688.7516746193</v>
+        <v>652688.7516746194</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652688.7516746193</v>
+        <v>652688.7516746194</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652688.7516746193</v>
+        <v>652688.7516746195</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671681.8190744178</v>
+        <v>671681.8190744179</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671681.8190744177</v>
+        <v>671681.8190744179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671681.8190744178</v>
+        <v>671681.8190744179</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671681.8190744177</v>
+        <v>671681.819074418</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671681.8190744177</v>
+        <v>671681.8190744179</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671681.8190744178</v>
+        <v>671681.8190744179</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472358.9397941253</v>
+      </c>
+      <c r="C2" t="n">
         <v>472358.9397941252</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472358.9397941253</v>
       </c>
       <c r="D2" t="n">
         <v>472358.9397941253</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="F2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="G2" t="n">
         <v>419990.5679258858</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258857</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="I2" t="n">
-        <v>433884.7810915625</v>
+        <v>433884.7810915626</v>
       </c>
       <c r="J2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915627</v>
       </c>
       <c r="K2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915628</v>
       </c>
       <c r="L2" t="n">
-        <v>433884.7810915624</v>
+        <v>433884.7810915628</v>
       </c>
       <c r="M2" t="n">
+        <v>433884.7810915628</v>
+      </c>
+      <c r="N2" t="n">
         <v>433884.7810915627</v>
       </c>
-      <c r="N2" t="n">
-        <v>433884.7810915625</v>
-      </c>
       <c r="O2" t="n">
+        <v>433884.7810915627</v>
+      </c>
+      <c r="P2" t="n">
         <v>433884.7810915623</v>
-      </c>
-      <c r="P2" t="n">
-        <v>433884.7810915626</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588463</v>
+        <v>45948.62261588481</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
+        <v>59647.11115782198</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59647.11115782198</v>
+      </c>
+      <c r="G4" t="n">
         <v>59647.11115782197</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59647.11115782197</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="J4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="K4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="L4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="M4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="N4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="O4" t="n">
         <v>59023.65497279317</v>
@@ -26493,25 +26493,25 @@
         <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868561</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="K5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868561</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38288.54356672044</v>
+        <v>38288.54356672052</v>
       </c>
       <c r="C6" t="n">
-        <v>213244.0534598347</v>
+        <v>213244.0534598346</v>
       </c>
       <c r="D6" t="n">
         <v>213244.0534598347</v>
       </c>
       <c r="E6" t="n">
-        <v>97348.48362374736</v>
+        <v>97167.90303109837</v>
       </c>
       <c r="F6" t="n">
-        <v>289478.2465231905</v>
+        <v>289297.6659305416</v>
       </c>
       <c r="G6" t="n">
-        <v>289478.2465231905</v>
+        <v>289297.6659305414</v>
       </c>
       <c r="H6" t="n">
-        <v>289478.2465231905</v>
+        <v>289297.6659305415</v>
       </c>
       <c r="I6" t="n">
-        <v>253944.6637141991</v>
+        <v>253811.9942014316</v>
       </c>
       <c r="J6" t="n">
-        <v>163298.485524189</v>
+        <v>163165.8160114214</v>
       </c>
       <c r="K6" t="n">
-        <v>299893.2863300839</v>
+        <v>299760.6168173166</v>
       </c>
       <c r="L6" t="n">
-        <v>299893.2863300836</v>
+        <v>299760.6168173165</v>
       </c>
       <c r="M6" t="n">
-        <v>139534.8358294012</v>
+        <v>139402.1663166339</v>
       </c>
       <c r="N6" t="n">
-        <v>299893.2863300837</v>
+        <v>299760.6168173164</v>
       </c>
       <c r="O6" t="n">
-        <v>299893.2863300835</v>
+        <v>299760.6168173164</v>
       </c>
       <c r="P6" t="n">
-        <v>299893.2863300838</v>
+        <v>299760.616817316</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812857</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.2033302017616</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>18.19522188379989</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>198.946985679952</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>54.66801363181918</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.139615919969</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>365.6721757243774</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>11.75949205792773</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>220.9305176767169</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>206.7186463966067</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>89.59683424088547</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>11.48287933845643</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.9981280587739</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28019,19 +28019,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M23" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P23" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M26" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M29" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M32" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P32" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M35" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P35" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552906</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096871</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947848</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275961</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394507</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064905</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M38" t="n">
-        <v>30.0706857635142</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710192</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323025</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P38" t="n">
-        <v>24.6265243920215</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163515</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949128</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753689</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707851</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442325</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106901</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284825</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017069</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436394</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039802</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430382</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863007</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720053</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538369</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821492</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622278</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524796</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745513</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557561</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886121</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875644</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513077</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507694</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471079</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388246</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944221</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676788</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521162</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935841</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035775</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987415</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871539</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008237</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937774</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750356</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947878</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707884</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106943</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284865</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436433</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524821</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886148</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513108</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471104</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987444</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871554</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750375</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34713,7 +34713,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>209.2450561298661</v>
+        <v>10.70163254908659</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>500.9700927793178</v>
-      </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q23" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417081</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36524,19 +36524,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M25" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N25" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O25" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P25" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q26" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
-        <v>421.6433884683616</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36761,19 +36761,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M28" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N28" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O28" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P28" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q29" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -36998,19 +36998,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M31" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N31" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O31" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P31" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q32" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37235,19 +37235,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M34" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N34" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O34" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P34" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q35" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37472,19 +37472,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M37" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N37" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O37" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P37" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096415</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623261</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618714</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q38" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682948</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>203.4173850259144</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>76.38594351579445</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37709,19 +37709,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M40" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O40" t="n">
-        <v>273.0403949425646</v>
+        <v>273.0403949425647</v>
       </c>
       <c r="P40" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.6224395154327</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O41" t="n">
         <v>678.9865331623262</v>
@@ -37803,7 +37803,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>498.4564440779687</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926749</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>421.6433884683614</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
